--- a/files/9.15.dx.data/Use this_ Female_Data_Summary_fix.xlsx
+++ b/files/9.15.dx.data/Use this_ Female_Data_Summary_fix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Isometric muscle Strength" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="50">
   <si>
     <t>Group</t>
   </si>
@@ -165,6 +165,13 @@
   </si>
   <si>
     <t>BOT balance</t>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cmtpeds.org/</t>
   </si>
 </sst>
 </file>
@@ -551,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3372,6 +3379,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:V1"/>
@@ -3384,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3452,27 +3464,24 @@
         <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3499,27 +3508,24 @@
         <v>28.274999999999999</v>
       </c>
       <c r="H3" s="3">
-        <v>5.35</v>
+        <v>129.1</v>
       </c>
       <c r="I3" s="3">
-        <v>129.1</v>
+        <v>29.15</v>
       </c>
       <c r="J3" s="3">
-        <v>29.15</v>
+        <v>41.1</v>
       </c>
       <c r="K3" s="3">
-        <v>41.1</v>
+        <v>144.05000000000001</v>
       </c>
       <c r="L3" s="3">
-        <v>144.05000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="M3" s="3">
-        <v>6.35</v>
+        <v>99.5</v>
       </c>
       <c r="N3" s="3">
-        <v>99.5</v>
-      </c>
-      <c r="O3" s="3">
         <v>73.05</v>
       </c>
     </row>
@@ -3540,27 +3546,24 @@
         <v>2.8136941909169879</v>
       </c>
       <c r="H4" s="3">
-        <v>3.8990383429763806</v>
+        <v>10.116323442832382</v>
       </c>
       <c r="I4" s="3">
-        <v>10.116323442832382</v>
+        <v>12.601686395082208</v>
       </c>
       <c r="J4" s="3">
-        <v>12.601686395082208</v>
+        <v>9.7948966303887044</v>
       </c>
       <c r="K4" s="3">
-        <v>9.7948966303887044</v>
+        <v>6.6274052237659351</v>
       </c>
       <c r="L4" s="3">
-        <v>6.6274052237659351</v>
+        <v>5.6482298111886351</v>
       </c>
       <c r="M4" s="3">
-        <v>5.6482298111886351</v>
+        <v>18.002777563476144</v>
       </c>
       <c r="N4" s="3">
-        <v>18.002777563476144</v>
-      </c>
-      <c r="O4" s="3">
         <v>18.336370960470887</v>
       </c>
     </row>
@@ -3576,7 +3579,6 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
@@ -3601,27 +3603,24 @@
         <v>32.119999999999997</v>
       </c>
       <c r="H6" s="3">
-        <v>5.65</v>
+        <v>131.35</v>
       </c>
       <c r="I6" s="3">
-        <v>131.35</v>
+        <v>31.1</v>
       </c>
       <c r="J6" s="3">
-        <v>31.1</v>
+        <v>42.85</v>
       </c>
       <c r="K6" s="3">
-        <v>42.85</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="L6" s="3">
-        <v>145.55000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="M6" s="3">
-        <v>7.2</v>
+        <v>99.75</v>
       </c>
       <c r="N6" s="3">
-        <v>99.75</v>
-      </c>
-      <c r="O6" s="3">
         <v>68.849999999999994</v>
       </c>
     </row>
@@ -3642,27 +3641,24 @@
         <v>8.4298042681903471</v>
       </c>
       <c r="H7" s="3">
-        <v>4.5334865170197647</v>
+        <v>6.8631261098715068</v>
       </c>
       <c r="I7" s="3">
-        <v>6.8631261098715068</v>
+        <v>6.6136223055145811</v>
       </c>
       <c r="J7" s="3">
-        <v>6.6136223055145811</v>
+        <v>8.3097833906787244</v>
       </c>
       <c r="K7" s="3">
-        <v>8.3097833906787244</v>
+        <v>5.4242511003824303</v>
       </c>
       <c r="L7" s="3">
-        <v>5.4242511003824303</v>
+        <v>4.5508241011931014</v>
       </c>
       <c r="M7" s="3">
-        <v>4.5508241011931014</v>
+        <v>12.696948452285691</v>
       </c>
       <c r="N7" s="3">
-        <v>12.696948452285691</v>
-      </c>
-      <c r="O7" s="3">
         <v>7.6780531386543558</v>
       </c>
     </row>
@@ -3678,7 +3674,6 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
@@ -3703,27 +3698,24 @@
         <v>29.8</v>
       </c>
       <c r="H9" s="3">
-        <v>5.0999999999999996</v>
+        <v>133.9</v>
       </c>
       <c r="I9" s="3">
-        <v>133.9</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3">
-        <v>28</v>
+        <v>40.18</v>
       </c>
       <c r="K9" s="3">
-        <v>40.18</v>
+        <v>147.6</v>
       </c>
       <c r="L9" s="3">
-        <v>147.6</v>
+        <v>7.85</v>
       </c>
       <c r="M9" s="3">
-        <v>7.85</v>
+        <v>99.05</v>
       </c>
       <c r="N9" s="3">
-        <v>99.05</v>
-      </c>
-      <c r="O9" s="3">
         <v>68.599999999999994</v>
       </c>
     </row>
@@ -3744,27 +3736,24 @@
         <v>5.5344376408086848</v>
       </c>
       <c r="H10" s="3">
-        <v>4.6465040621955769</v>
+        <v>7.7388629655783419</v>
       </c>
       <c r="I10" s="3">
-        <v>7.7388629655783419</v>
+        <v>8.6486993241758618</v>
       </c>
       <c r="J10" s="3">
-        <v>8.6486993241758618</v>
+        <v>9.644252174222725</v>
       </c>
       <c r="K10" s="3">
-        <v>9.644252174222725</v>
+        <v>5.6603886792339626</v>
       </c>
       <c r="L10" s="3">
-        <v>5.6603886792339626</v>
+        <v>4.7542086618069259</v>
       </c>
       <c r="M10" s="3">
-        <v>4.7542086618069259</v>
+        <v>8.1806173361183454</v>
       </c>
       <c r="N10" s="3">
-        <v>8.1806173361183454</v>
-      </c>
-      <c r="O10" s="3">
         <v>9.9141313285632844</v>
       </c>
     </row>
@@ -3780,7 +3769,6 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
@@ -3805,27 +3793,24 @@
         <v>31.189999999999998</v>
       </c>
       <c r="H12" s="3">
-        <v>3.85</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="I12" s="3">
-        <v>137.05000000000001</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J12" s="3">
-        <v>33.200000000000003</v>
+        <v>45.9</v>
       </c>
       <c r="K12" s="3">
-        <v>45.9</v>
+        <v>147.25</v>
       </c>
       <c r="L12" s="3">
-        <v>147.25</v>
+        <v>8.75</v>
       </c>
       <c r="M12" s="3">
-        <v>8.75</v>
+        <v>102.2</v>
       </c>
       <c r="N12" s="3">
-        <v>102.2</v>
-      </c>
-      <c r="O12" s="3">
         <v>63.5</v>
       </c>
     </row>
@@ -3846,27 +3831,24 @@
         <v>8.5772314880735347</v>
       </c>
       <c r="H13" s="3">
-        <v>3.3320414163092269</v>
+        <v>9.7530764377195354</v>
       </c>
       <c r="I13" s="3">
-        <v>9.7530764377195354</v>
+        <v>7.5703368485160558</v>
       </c>
       <c r="J13" s="3">
-        <v>7.5703368485160558</v>
+        <v>11.586198686368192</v>
       </c>
       <c r="K13" s="3">
-        <v>11.586198686368192</v>
+        <v>5.367727638395972</v>
       </c>
       <c r="L13" s="3">
-        <v>5.367727638395972</v>
+        <v>5.4279369930020369</v>
       </c>
       <c r="M13" s="3">
-        <v>5.4279369930020369</v>
+        <v>16.011246047700347</v>
       </c>
       <c r="N13" s="3">
-        <v>16.011246047700347</v>
-      </c>
-      <c r="O13" s="3">
         <v>16.798809481626964</v>
       </c>
     </row>
@@ -3882,7 +3864,6 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
@@ -3907,27 +3888,24 @@
         <v>33.14</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>136.55000000000001</v>
       </c>
       <c r="I15" s="3">
-        <v>136.55000000000001</v>
+        <v>32.9</v>
       </c>
       <c r="J15" s="3">
-        <v>32.9</v>
+        <v>44.5</v>
       </c>
       <c r="K15" s="3">
-        <v>44.5</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="L15" s="3">
-        <v>150.19999999999999</v>
+        <v>10</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
+        <v>95.25</v>
       </c>
       <c r="N15" s="3">
-        <v>95.25</v>
-      </c>
-      <c r="O15" s="3">
         <v>65.7</v>
       </c>
     </row>
@@ -3948,31 +3926,28 @@
         <v>5.6979294484926584</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>7.9386711734395448</v>
       </c>
       <c r="I16" s="3">
-        <v>7.9386711734395448</v>
+        <v>10.520931517693668</v>
       </c>
       <c r="J16" s="3">
-        <v>10.520931517693668</v>
+        <v>9.5603347221736961</v>
       </c>
       <c r="K16" s="3">
-        <v>9.5603347221736961</v>
+        <v>3.465544690232691</v>
       </c>
       <c r="L16" s="3">
-        <v>3.465544690232691</v>
+        <v>5.205766033928148</v>
       </c>
       <c r="M16" s="3">
-        <v>5.205766033928148</v>
+        <v>12.069072043864846</v>
       </c>
       <c r="N16" s="3">
-        <v>12.069072043864846</v>
-      </c>
-      <c r="O16" s="3">
         <v>8.6203248198661289</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:14">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3984,9 +3959,8 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>6</v>
       </c>
@@ -4009,31 +3983,28 @@
         <v>29.459999999999997</v>
       </c>
       <c r="H18" s="3">
-        <v>1.35</v>
+        <v>128.35</v>
       </c>
       <c r="I18" s="3">
-        <v>128.35</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="J18" s="3">
-        <v>35.049999999999997</v>
+        <v>41.35</v>
       </c>
       <c r="K18" s="3">
-        <v>41.35</v>
+        <v>145.85</v>
       </c>
       <c r="L18" s="3">
-        <v>145.85</v>
+        <v>5.6</v>
       </c>
       <c r="M18" s="3">
-        <v>5.6</v>
+        <v>96.15</v>
       </c>
       <c r="N18" s="3">
-        <v>96.15</v>
-      </c>
-      <c r="O18" s="3">
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14">
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -4050,31 +4021,28 @@
         <v>5.4152008273008967</v>
       </c>
       <c r="H19" s="3">
-        <v>3.0907118921051184</v>
+        <v>8.8319023998230417</v>
       </c>
       <c r="I19" s="3">
-        <v>8.8319023998230417</v>
+        <v>11.053166966982811</v>
       </c>
       <c r="J19" s="3">
-        <v>11.053166966982811</v>
+        <v>5.8053854307875206</v>
       </c>
       <c r="K19" s="3">
-        <v>5.8053854307875206</v>
+        <v>4.8941291360159269</v>
       </c>
       <c r="L19" s="3">
-        <v>4.8941291360159269</v>
+        <v>4.0484564959994325</v>
       </c>
       <c r="M19" s="3">
-        <v>4.0484564959994325</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="N19" s="3">
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="O19" s="3">
         <v>14.578751661236293</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4086,9 +4054,8 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>7</v>
       </c>
@@ -4111,31 +4078,28 @@
         <v>33.47</v>
       </c>
       <c r="H21" s="3">
-        <v>2.85</v>
+        <v>136.75</v>
       </c>
       <c r="I21" s="3">
-        <v>136.75</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J21" s="3">
-        <v>32.799999999999997</v>
+        <v>45.4</v>
       </c>
       <c r="K21" s="3">
-        <v>45.4</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="L21" s="3">
-        <v>147.19999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="M21" s="3">
-        <v>7.6</v>
+        <v>100.7</v>
       </c>
       <c r="N21" s="3">
-        <v>100.7</v>
-      </c>
-      <c r="O21" s="3">
         <v>64.849999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14">
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -4152,31 +4116,28 @@
         <v>8.2173049109790348</v>
       </c>
       <c r="H22" s="3">
-        <v>2.720753572082558</v>
+        <v>11.522261062829639</v>
       </c>
       <c r="I22" s="3">
-        <v>11.522261062829639</v>
+        <v>10.929775843996069</v>
       </c>
       <c r="J22" s="3">
-        <v>10.929775843996069</v>
+        <v>5.3469617541179399</v>
       </c>
       <c r="K22" s="3">
-        <v>5.3469617541179399</v>
+        <v>6.095900261651269</v>
       </c>
       <c r="L22" s="3">
-        <v>6.095900261651269</v>
+        <v>4.6411205543489169</v>
       </c>
       <c r="M22" s="3">
-        <v>4.6411205543489169</v>
+        <v>7.8746428490440126</v>
       </c>
       <c r="N22" s="3">
-        <v>7.8746428490440126</v>
-      </c>
-      <c r="O22" s="3">
         <v>8.9108080441674868</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4188,9 +4149,8 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>8</v>
       </c>
@@ -4213,31 +4173,28 @@
         <v>38.274999999999999</v>
       </c>
       <c r="H24" s="3">
-        <v>2.9375</v>
+        <v>129.375</v>
       </c>
       <c r="I24" s="3">
-        <v>129.375</v>
+        <v>29.4375</v>
       </c>
       <c r="J24" s="3">
-        <v>29.4375</v>
+        <v>42.5625</v>
       </c>
       <c r="K24" s="3">
-        <v>42.5625</v>
+        <v>148.8125</v>
       </c>
       <c r="L24" s="3">
-        <v>148.8125</v>
+        <v>6.25</v>
       </c>
       <c r="M24" s="3">
-        <v>6.25</v>
+        <v>96.125</v>
       </c>
       <c r="N24" s="3">
-        <v>96.125</v>
-      </c>
-      <c r="O24" s="3">
         <v>67.4375</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="C25" t="s">
         <v>24</v>
       </c>
@@ -4254,31 +4211,28 @@
         <v>7.9771157068203742</v>
       </c>
       <c r="H25" s="3">
-        <v>1.4670868242881878</v>
+        <v>10.576359250706266</v>
       </c>
       <c r="I25" s="3">
-        <v>10.576359250706266</v>
+        <v>5.63713967806369</v>
       </c>
       <c r="J25" s="3">
-        <v>5.63713967806369</v>
+        <v>5.9499868697334115</v>
       </c>
       <c r="K25" s="3">
-        <v>5.9499868697334115</v>
+        <v>3.4454453630844299</v>
       </c>
       <c r="L25" s="3">
-        <v>3.4454453630844299</v>
+        <v>7.2111025509279782</v>
       </c>
       <c r="M25" s="3">
-        <v>7.2111025509279782</v>
+        <v>11.030497495580152</v>
       </c>
       <c r="N25" s="3">
-        <v>11.030497495580152</v>
-      </c>
-      <c r="O25" s="3">
         <v>6.545215332592198</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4290,9 +4244,8 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4315,31 +4268,28 @@
         <v>34.750000000000007</v>
       </c>
       <c r="H27" s="3">
-        <v>3.125</v>
+        <v>130.4375</v>
       </c>
       <c r="I27" s="3">
-        <v>130.4375</v>
+        <v>32.5</v>
       </c>
       <c r="J27" s="3">
-        <v>32.5</v>
+        <v>41.8125</v>
       </c>
       <c r="K27" s="3">
-        <v>41.8125</v>
+        <v>151.125</v>
       </c>
       <c r="L27" s="3">
-        <v>151.125</v>
+        <v>8.8125</v>
       </c>
       <c r="M27" s="3">
-        <v>8.8125</v>
+        <v>93.25</v>
       </c>
       <c r="N27" s="3">
-        <v>93.25</v>
-      </c>
-      <c r="O27" s="3">
         <v>74.125</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -4356,31 +4306,28 @@
         <v>4.6583258795408025</v>
       </c>
       <c r="H28" s="3">
-        <v>1.5761900266148114</v>
+        <v>6.93918898359167</v>
       </c>
       <c r="I28" s="3">
-        <v>6.93918898359167</v>
+        <v>7.245688373094719</v>
       </c>
       <c r="J28" s="3">
-        <v>7.245688373094719</v>
+        <v>5.9735746207777467</v>
       </c>
       <c r="K28" s="3">
-        <v>5.9735746207777467</v>
+        <v>3.3703671906781909</v>
       </c>
       <c r="L28" s="3">
-        <v>3.3703671906781909</v>
+        <v>3.8400642898264086</v>
       </c>
       <c r="M28" s="3">
-        <v>3.8400642898264086</v>
+        <v>21.24705861995961</v>
       </c>
       <c r="N28" s="3">
-        <v>21.24705861995961</v>
-      </c>
-      <c r="O28" s="3">
         <v>14.066249500133289</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4392,9 +4339,8 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>10</v>
       </c>
@@ -4417,31 +4363,28 @@
         <v>28.099999999999998</v>
       </c>
       <c r="H30" s="3">
-        <v>1.5</v>
+        <v>123.5</v>
       </c>
       <c r="I30" s="3">
-        <v>123.5</v>
+        <v>30.9375</v>
       </c>
       <c r="J30" s="3">
-        <v>30.9375</v>
+        <v>37.8125</v>
       </c>
       <c r="K30" s="3">
-        <v>37.8125</v>
+        <v>146.875</v>
       </c>
       <c r="L30" s="3">
-        <v>146.875</v>
+        <v>8.5</v>
       </c>
       <c r="M30" s="3">
-        <v>8.5</v>
+        <v>93.5</v>
       </c>
       <c r="N30" s="3">
-        <v>93.5</v>
-      </c>
-      <c r="O30" s="3">
         <v>68.625</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:14">
       <c r="C31" t="s">
         <v>24</v>
       </c>
@@ -4458,31 +4401,28 @@
         <v>8.3389147975021327</v>
       </c>
       <c r="H31" s="3">
-        <v>2.1360009363293826</v>
+        <v>14.155387666892066</v>
       </c>
       <c r="I31" s="3">
-        <v>14.155387666892066</v>
+        <v>10.193249911093124</v>
       </c>
       <c r="J31" s="3">
-        <v>10.193249911093124</v>
+        <v>8.7032231816724082</v>
       </c>
       <c r="K31" s="3">
-        <v>8.7032231816724082</v>
+        <v>4.7942022276912768</v>
       </c>
       <c r="L31" s="3">
-        <v>4.7942022276912768</v>
+        <v>7.3314391493075899</v>
       </c>
       <c r="M31" s="3">
-        <v>7.3314391493075899</v>
+        <v>13.124404748406688</v>
       </c>
       <c r="N31" s="3">
-        <v>13.124404748406688</v>
-      </c>
-      <c r="O31" s="3">
         <v>13.849074878850212</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:14">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4494,9 +4434,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>11</v>
       </c>
@@ -4519,31 +4458,28 @@
         <v>29.85</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>123.875</v>
       </c>
       <c r="I33" s="3">
-        <v>123.875</v>
+        <v>29.3125</v>
       </c>
       <c r="J33" s="3">
-        <v>29.3125</v>
+        <v>38.125</v>
       </c>
       <c r="K33" s="3">
-        <v>38.125</v>
+        <v>149.25</v>
       </c>
       <c r="L33" s="3">
-        <v>149.25</v>
+        <v>5.5625</v>
       </c>
       <c r="M33" s="3">
-        <v>5.5625</v>
+        <v>103.0625</v>
       </c>
       <c r="N33" s="3">
-        <v>103.0625</v>
-      </c>
-      <c r="O33" s="3">
         <v>60.1875</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:14">
       <c r="C34" t="s">
         <v>24</v>
       </c>
@@ -4560,31 +4496,28 @@
         <v>9.7992346639928911</v>
       </c>
       <c r="H34" s="3">
-        <v>3.344772040064913</v>
+        <v>12.561722612762949</v>
       </c>
       <c r="I34" s="3">
-        <v>12.561722612762949</v>
+        <v>10.428139515273086</v>
       </c>
       <c r="J34" s="3">
-        <v>10.428139515273086</v>
+        <v>7.2446100654210506</v>
       </c>
       <c r="K34" s="3">
-        <v>7.2446100654210506</v>
+        <v>5.123475382979799</v>
       </c>
       <c r="L34" s="3">
-        <v>5.123475382979799</v>
+        <v>3.7033557417563872</v>
       </c>
       <c r="M34" s="3">
-        <v>3.7033557417563872</v>
+        <v>9.1393295022118561</v>
       </c>
       <c r="N34" s="3">
-        <v>9.1393295022118561</v>
-      </c>
-      <c r="O34" s="3">
         <v>10.714877215815401</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:14">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4596,9 +4529,8 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>12</v>
       </c>
@@ -4621,31 +4553,28 @@
         <v>27.324999999999999</v>
       </c>
       <c r="H36" s="3">
-        <v>1.8125</v>
+        <v>120.75</v>
       </c>
       <c r="I36" s="3">
-        <v>120.75</v>
+        <v>26.75</v>
       </c>
       <c r="J36" s="3">
-        <v>26.75</v>
+        <v>37.8125</v>
       </c>
       <c r="K36" s="3">
-        <v>37.8125</v>
+        <v>149.75</v>
       </c>
       <c r="L36" s="3">
-        <v>149.75</v>
+        <v>7.5</v>
       </c>
       <c r="M36" s="3">
-        <v>7.5</v>
+        <v>93.1875</v>
       </c>
       <c r="N36" s="3">
-        <v>93.1875</v>
-      </c>
-      <c r="O36" s="3">
         <v>58.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:14">
       <c r="C37" t="s">
         <v>24</v>
       </c>
@@ -4662,31 +4591,28 @@
         <v>3.3547540893484253</v>
       </c>
       <c r="H37" s="3">
-        <v>1.7666617531378213</v>
+        <v>6.1186191252602082</v>
       </c>
       <c r="I37" s="3">
-        <v>6.1186191252602082</v>
+        <v>3.4910600109422352</v>
       </c>
       <c r="J37" s="3">
-        <v>3.4910600109422352</v>
+        <v>7.1673630960067873</v>
       </c>
       <c r="K37" s="3">
-        <v>7.1673630960067873</v>
+        <v>2.9685855217594792</v>
       </c>
       <c r="L37" s="3">
-        <v>2.9685855217594792</v>
+        <v>4.1833001326703778</v>
       </c>
       <c r="M37" s="3">
-        <v>4.1833001326703778</v>
+        <v>8.9510386967100075</v>
       </c>
       <c r="N37" s="3">
-        <v>8.9510386967100075</v>
-      </c>
-      <c r="O37" s="3">
         <v>6.324555320336759</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:14">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4698,9 +4624,8 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>13</v>
       </c>
@@ -4723,31 +4648,28 @@
         <v>28.150000000000002</v>
       </c>
       <c r="H39" s="3">
-        <v>3.9375</v>
+        <v>119.75</v>
       </c>
       <c r="I39" s="3">
-        <v>119.75</v>
+        <v>30.4375</v>
       </c>
       <c r="J39" s="3">
-        <v>30.4375</v>
+        <v>38.5625</v>
       </c>
       <c r="K39" s="3">
-        <v>38.5625</v>
+        <v>150.625</v>
       </c>
       <c r="L39" s="3">
-        <v>150.625</v>
+        <v>7.8125</v>
       </c>
       <c r="M39" s="3">
-        <v>7.8125</v>
+        <v>88.875</v>
       </c>
       <c r="N39" s="3">
-        <v>88.875</v>
-      </c>
-      <c r="O39" s="3">
         <v>65.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:14">
       <c r="C40" t="s">
         <v>24</v>
       </c>
@@ -4764,31 +4686,28 @@
         <v>5.2919750566305472</v>
       </c>
       <c r="H40" s="3">
-        <v>3.736956482219187</v>
+        <v>5.3560713214071374</v>
       </c>
       <c r="I40" s="3">
-        <v>5.3560713214071374</v>
+        <v>7.8717751333482591</v>
       </c>
       <c r="J40" s="3">
-        <v>7.8717751333482591</v>
+        <v>3.4860211918460853</v>
       </c>
       <c r="K40" s="3">
-        <v>3.4860211918460853</v>
+        <v>3.4164125921791122</v>
       </c>
       <c r="L40" s="3">
-        <v>3.4164125921791122</v>
+        <v>4.9240322653288944</v>
       </c>
       <c r="M40" s="3">
-        <v>4.9240322653288944</v>
+        <v>7.8928369424434459</v>
       </c>
       <c r="N40" s="3">
-        <v>7.8928369424434459</v>
-      </c>
-      <c r="O40" s="3">
         <v>10.744184473472149</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:14">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4800,9 +4719,8 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>14</v>
       </c>
@@ -4825,31 +4743,28 @@
         <v>26.524999999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>2.3125</v>
+        <v>123.3125</v>
       </c>
       <c r="I42" s="3">
-        <v>123.3125</v>
+        <v>31.1875</v>
       </c>
       <c r="J42" s="3">
-        <v>31.1875</v>
+        <v>40.9375</v>
       </c>
       <c r="K42" s="3">
-        <v>40.9375</v>
+        <v>146.125</v>
       </c>
       <c r="L42" s="3">
-        <v>146.125</v>
+        <v>6.5</v>
       </c>
       <c r="M42" s="3">
-        <v>6.5</v>
+        <v>91.6875</v>
       </c>
       <c r="N42" s="3">
-        <v>91.6875</v>
-      </c>
-      <c r="O42" s="3">
         <v>64.625</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:14">
       <c r="C43" t="s">
         <v>24</v>
       </c>
@@ -4866,31 +4781,28 @@
         <v>3.4863125218488316</v>
       </c>
       <c r="H43" s="3">
-        <v>2.5852647349933044</v>
+        <v>7.9370078587588662</v>
       </c>
       <c r="I43" s="3">
-        <v>7.9370078587588662</v>
+        <v>4.9556627962362407</v>
       </c>
       <c r="J43" s="3">
-        <v>4.9556627962362407</v>
+        <v>4.706627640891087</v>
       </c>
       <c r="K43" s="3">
-        <v>4.706627640891087</v>
+        <v>5.8081300777444715</v>
       </c>
       <c r="L43" s="3">
-        <v>5.8081300777444715</v>
+        <v>5.367727638395972</v>
       </c>
       <c r="M43" s="3">
-        <v>5.367727638395972</v>
+        <v>9.4997944056700518</v>
       </c>
       <c r="N43" s="3">
-        <v>9.4997944056700518</v>
-      </c>
-      <c r="O43" s="3">
         <v>8.8520830881776078</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:14">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4902,9 +4814,8 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>15</v>
       </c>
@@ -4927,31 +4838,28 @@
         <v>30.437500000000004</v>
       </c>
       <c r="H45" s="3">
-        <v>3</v>
+        <v>120.0625</v>
       </c>
       <c r="I45" s="3">
-        <v>120.0625</v>
+        <v>28.25</v>
       </c>
       <c r="J45" s="3">
-        <v>28.25</v>
+        <v>38.375</v>
       </c>
       <c r="K45" s="3">
-        <v>38.375</v>
+        <v>150.3125</v>
       </c>
       <c r="L45" s="3">
-        <v>150.3125</v>
+        <v>7.75</v>
       </c>
       <c r="M45" s="3">
-        <v>7.75</v>
+        <v>83.6875</v>
       </c>
       <c r="N45" s="3">
-        <v>83.6875</v>
-      </c>
-      <c r="O45" s="3">
         <v>71.75</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:14">
       <c r="C46" t="s">
         <v>24</v>
       </c>
@@ -4968,31 +4876,28 @@
         <v>3.3196150002673255</v>
       </c>
       <c r="H46" s="3">
-        <v>2.75</v>
+        <v>11.270640787018278</v>
       </c>
       <c r="I46" s="3">
-        <v>11.270640787018278</v>
+        <v>7.352720584926371</v>
       </c>
       <c r="J46" s="3">
-        <v>7.352720584926371</v>
+        <v>11.101097918674531</v>
       </c>
       <c r="K46" s="3">
-        <v>11.101097918674531</v>
+        <v>2.3040385738958453</v>
       </c>
       <c r="L46" s="3">
-        <v>2.3040385738958453</v>
+        <v>4.8669805834829463</v>
       </c>
       <c r="M46" s="3">
-        <v>4.8669805834829463</v>
+        <v>12.328669585563562</v>
       </c>
       <c r="N46" s="3">
-        <v>12.328669585563562</v>
-      </c>
-      <c r="O46" s="3">
         <v>12.58471294865322</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:14">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5004,9 +4909,8 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>16</v>
       </c>
@@ -5029,31 +4933,28 @@
         <v>32.162500000000001</v>
       </c>
       <c r="H48" s="3">
-        <v>1.5625</v>
+        <v>127.125</v>
       </c>
       <c r="I48" s="3">
-        <v>127.125</v>
+        <v>38.875</v>
       </c>
       <c r="J48" s="3">
-        <v>38.875</v>
+        <v>36.125</v>
       </c>
       <c r="K48" s="3">
-        <v>36.125</v>
+        <v>150.4375</v>
       </c>
       <c r="L48" s="3">
-        <v>150.4375</v>
+        <v>7.0625</v>
       </c>
       <c r="M48" s="3">
-        <v>7.0625</v>
+        <v>95.9375</v>
       </c>
       <c r="N48" s="3">
-        <v>95.9375</v>
-      </c>
-      <c r="O48" s="3">
         <v>61.5</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:14">
       <c r="C49" t="s">
         <v>24</v>
       </c>
@@ -5070,31 +4971,28 @@
         <v>6.7016672365912049</v>
       </c>
       <c r="H49" s="3">
-        <v>1.6665364532466729</v>
+        <v>5.1219503121369696</v>
       </c>
       <c r="I49" s="3">
-        <v>5.1219503121369696</v>
+        <v>15.337352281277235</v>
       </c>
       <c r="J49" s="3">
-        <v>15.337352281277235</v>
+        <v>7.8928369424434459</v>
       </c>
       <c r="K49" s="3">
-        <v>7.8928369424434459</v>
+        <v>5.3293849316783266</v>
       </c>
       <c r="L49" s="3">
-        <v>5.3293849316783266</v>
+        <v>5.5194966935400913</v>
       </c>
       <c r="M49" s="3">
-        <v>5.5194966935400913</v>
+        <v>14.446966593371773</v>
       </c>
       <c r="N49" s="3">
-        <v>14.446966593371773</v>
-      </c>
-      <c r="O49" s="3">
         <v>13.713588151902478</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:14">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5106,9 +5004,8 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>17</v>
       </c>
@@ -5131,31 +5028,28 @@
         <v>29.900000000000002</v>
       </c>
       <c r="H51" s="3">
-        <v>2.25</v>
+        <v>126.375</v>
       </c>
       <c r="I51" s="3">
-        <v>126.375</v>
+        <v>27.5</v>
       </c>
       <c r="J51" s="3">
-        <v>27.5</v>
+        <v>41.3125</v>
       </c>
       <c r="K51" s="3">
-        <v>41.3125</v>
+        <v>152.875</v>
       </c>
       <c r="L51" s="3">
-        <v>152.875</v>
+        <v>9.0625</v>
       </c>
       <c r="M51" s="3">
-        <v>9.0625</v>
+        <v>94.6875</v>
       </c>
       <c r="N51" s="3">
-        <v>94.6875</v>
-      </c>
-      <c r="O51" s="3">
         <v>64.125</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:14">
       <c r="C52" t="s">
         <v>24</v>
       </c>
@@ -5172,31 +5066,28 @@
         <v>4.4550533105676839</v>
       </c>
       <c r="H52" s="3">
-        <v>2.0310096011589902</v>
+        <v>9.4662228475775905</v>
       </c>
       <c r="I52" s="3">
-        <v>9.4662228475775905</v>
+        <v>5.820223363411408</v>
       </c>
       <c r="J52" s="3">
-        <v>5.820223363411408</v>
+        <v>8.8173745383759226</v>
       </c>
       <c r="K52" s="3">
-        <v>8.8173745383759226</v>
+        <v>2.8695600708122493</v>
       </c>
       <c r="L52" s="3">
-        <v>2.8695600708122493</v>
+        <v>5.9499868697334115</v>
       </c>
       <c r="M52" s="3">
-        <v>5.9499868697334115</v>
+        <v>8.477682097719871</v>
       </c>
       <c r="N52" s="3">
-        <v>8.477682097719871</v>
-      </c>
-      <c r="O52" s="3">
         <v>11.645143837668988</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:14">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5208,9 +5099,8 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>18</v>
       </c>
@@ -5233,31 +5123,28 @@
         <v>32.14</v>
       </c>
       <c r="H54" s="3">
-        <v>2.15</v>
+        <v>123.2</v>
       </c>
       <c r="I54" s="3">
-        <v>123.2</v>
+        <v>25.95</v>
       </c>
       <c r="J54" s="3">
-        <v>25.95</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="K54" s="3">
-        <v>37.549999999999997</v>
+        <v>151.1</v>
       </c>
       <c r="L54" s="3">
-        <v>151.1</v>
+        <v>7.1</v>
       </c>
       <c r="M54" s="3">
-        <v>7.1</v>
+        <v>85.1</v>
       </c>
       <c r="N54" s="3">
-        <v>85.1</v>
-      </c>
-      <c r="O54" s="3">
         <v>63.65</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:14">
       <c r="C55" t="s">
         <v>24</v>
       </c>
@@ -5274,31 +5161,28 @@
         <v>5.1614339092930308</v>
       </c>
       <c r="H55" s="3">
-        <v>2.8727164844446449</v>
+        <v>9.6855562566122142</v>
       </c>
       <c r="I55" s="3">
-        <v>9.6855562566122142</v>
+        <v>11.45523897611918</v>
       </c>
       <c r="J55" s="3">
-        <v>11.45523897611918</v>
+        <v>6.9045275001262754</v>
       </c>
       <c r="K55" s="3">
-        <v>6.9045275001262754</v>
+        <v>4.1940433951021534</v>
       </c>
       <c r="L55" s="3">
-        <v>4.1940433951021534</v>
+        <v>5.6692151132233466</v>
       </c>
       <c r="M55" s="3">
-        <v>5.6692151132233466</v>
+        <v>14.827002394280511</v>
       </c>
       <c r="N55" s="3">
-        <v>14.827002394280511</v>
-      </c>
-      <c r="O55" s="3">
         <v>17.070515516527319</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:14">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5310,9 +5194,8 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>19</v>
       </c>
@@ -5335,31 +5218,28 @@
         <v>31.140000000000004</v>
       </c>
       <c r="H57" s="3">
-        <v>1.65</v>
+        <v>125.68</v>
       </c>
       <c r="I57" s="3">
-        <v>125.68</v>
+        <v>29.6</v>
       </c>
       <c r="J57" s="3">
-        <v>29.6</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="K57" s="3">
-        <v>39.520000000000003</v>
+        <v>150.88</v>
       </c>
       <c r="L57" s="3">
-        <v>150.88</v>
+        <v>5.97</v>
       </c>
       <c r="M57" s="3">
-        <v>5.97</v>
+        <v>90.37</v>
       </c>
       <c r="N57" s="3">
-        <v>90.37</v>
-      </c>
-      <c r="O57" s="3">
         <v>62.75</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:14">
       <c r="B58" s="1"/>
       <c r="C58" t="s">
         <v>24</v>
@@ -5377,31 +5257,28 @@
         <v>5.1880632224366554</v>
       </c>
       <c r="H58" s="3">
-        <v>2.1242645786248002</v>
+        <v>9.1064592460516725</v>
       </c>
       <c r="I58" s="3">
-        <v>9.1064592460516725</v>
+        <v>10.760576192751019</v>
       </c>
       <c r="J58" s="3">
-        <v>10.760576192751019</v>
+        <v>8.7085934570400063</v>
       </c>
       <c r="K58" s="3">
-        <v>8.7085934570400063</v>
+        <v>4.6846131110263523</v>
       </c>
       <c r="L58" s="3">
-        <v>4.6846131110263523</v>
+        <v>5.4794251523312187</v>
       </c>
       <c r="M58" s="3">
-        <v>5.4794251523312187</v>
+        <v>17.986330921007763</v>
       </c>
       <c r="N58" s="3">
-        <v>17.986330921007763</v>
-      </c>
-      <c r="O58" s="3">
         <v>14.946320617463016</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:14">
       <c r="B59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5414,9 +5291,8 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>20</v>
       </c>
@@ -5439,31 +5315,28 @@
         <v>29.288372093023259</v>
       </c>
       <c r="H60" s="3">
-        <v>2.5232558139534884</v>
+        <v>122.12790697674419</v>
       </c>
       <c r="I60" s="3">
-        <v>122.12790697674419</v>
+        <v>26.186046511627907</v>
       </c>
       <c r="J60" s="3">
-        <v>26.186046511627907</v>
+        <v>39.5</v>
       </c>
       <c r="K60" s="3">
-        <v>39.5</v>
+        <v>148.7093023255814</v>
       </c>
       <c r="L60" s="3">
-        <v>148.7093023255814</v>
+        <v>3.7209302325581395</v>
       </c>
       <c r="M60" s="3">
-        <v>3.7209302325581395</v>
+        <v>81.604651162790702</v>
       </c>
       <c r="N60" s="3">
-        <v>81.604651162790702</v>
-      </c>
-      <c r="O60" s="3">
         <v>65.988372093023258</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:14">
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>24</v>
@@ -5481,31 +5354,28 @@
         <v>7.4764501370800733</v>
       </c>
       <c r="H61" s="3">
-        <v>3.2295033248561453</v>
+        <v>8.438624531957009</v>
       </c>
       <c r="I61" s="3">
-        <v>8.438624531957009</v>
+        <v>6.9958652703977648</v>
       </c>
       <c r="J61" s="3">
-        <v>6.9958652703977648</v>
+        <v>9.0823109445241563</v>
       </c>
       <c r="K61" s="3">
-        <v>9.0823109445241563</v>
+        <v>5.6786345375384766</v>
       </c>
       <c r="L61" s="3">
-        <v>5.6786345375384766</v>
+        <v>4.3298615982787236</v>
       </c>
       <c r="M61" s="3">
-        <v>4.3298615982787236</v>
+        <v>12.614848273813516</v>
       </c>
       <c r="N61" s="3">
-        <v>12.614848273813516</v>
-      </c>
-      <c r="O61" s="3">
         <v>14.48515213015175</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:14">
       <c r="B62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5518,9 +5388,8 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>21</v>
       </c>
@@ -5543,31 +5412,28 @@
         <v>27.617307692307694</v>
       </c>
       <c r="H63" s="3">
-        <v>1.2884615384615385</v>
+        <v>122.08653846153847</v>
       </c>
       <c r="I63" s="3">
-        <v>122.08653846153847</v>
+        <v>26.346153846153847</v>
       </c>
       <c r="J63" s="3">
-        <v>26.346153846153847</v>
+        <v>41.66346153846154</v>
       </c>
       <c r="K63" s="3">
-        <v>41.66346153846154</v>
+        <v>149.25490196078431</v>
       </c>
       <c r="L63" s="3">
-        <v>149.25490196078431</v>
+        <v>3.4807692307692308</v>
       </c>
       <c r="M63" s="3">
-        <v>3.4807692307692308</v>
+        <v>81.529411764705884</v>
       </c>
       <c r="N63" s="3">
-        <v>81.529411764705884</v>
-      </c>
-      <c r="O63" s="3">
         <v>62.490384615384613</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:14">
       <c r="B64" s="1"/>
       <c r="C64" t="s">
         <v>24</v>
@@ -5585,31 +5451,28 @@
         <v>6.5405751674229604</v>
       </c>
       <c r="H64" s="3">
-        <v>2.1198379696928442</v>
+        <v>9.1129246518370373</v>
       </c>
       <c r="I64" s="3">
-        <v>9.1129246518370373</v>
+        <v>6.6820212723414514</v>
       </c>
       <c r="J64" s="3">
-        <v>6.6820212723414514</v>
+        <v>8.9398207873569344</v>
       </c>
       <c r="K64" s="3">
-        <v>8.9398207873569344</v>
+        <v>3.5526468302087415</v>
       </c>
       <c r="L64" s="3">
-        <v>3.5526468302087415</v>
+        <v>4.9321955815273455</v>
       </c>
       <c r="M64" s="3">
-        <v>4.9321955815273455</v>
+        <v>10.33289614731679</v>
       </c>
       <c r="N64" s="3">
-        <v>10.33289614731679</v>
-      </c>
-      <c r="O64" s="3">
         <v>11.409969655716823</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:14">
       <c r="B65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5622,9 +5485,8 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>22</v>
       </c>
@@ -5647,31 +5509,28 @@
         <v>29.062500000000004</v>
       </c>
       <c r="H66" s="3">
-        <v>0.76041666666666663</v>
+        <v>120.46875</v>
       </c>
       <c r="I66" s="3">
-        <v>120.46875</v>
+        <v>25.041666666666668</v>
       </c>
       <c r="J66" s="3">
-        <v>25.041666666666668</v>
+        <v>39.739583333333336</v>
       </c>
       <c r="K66" s="3">
-        <v>39.739583333333336</v>
+        <v>147.59375</v>
       </c>
       <c r="L66" s="3">
-        <v>147.59375</v>
+        <v>2.0104166666666665</v>
       </c>
       <c r="M66" s="3">
-        <v>2.0104166666666665</v>
+        <v>75.895833333333329</v>
       </c>
       <c r="N66" s="3">
-        <v>75.895833333333329</v>
-      </c>
-      <c r="O66" s="3">
         <v>62.510416666666664</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:14">
       <c r="B67" s="1"/>
       <c r="C67" t="s">
         <v>24</v>
@@ -5689,31 +5548,28 @@
         <v>5.6772801953634824</v>
       </c>
       <c r="H67" s="3">
-        <v>2.702216650527653</v>
+        <v>12.036146189880158</v>
       </c>
       <c r="I67" s="3">
-        <v>12.036146189880158</v>
+        <v>6.0774800607561756</v>
       </c>
       <c r="J67" s="3">
-        <v>6.0774800607561756</v>
+        <v>8.2354604096991579</v>
       </c>
       <c r="K67" s="3">
-        <v>8.2354604096991579</v>
+        <v>6.7836017427445325</v>
       </c>
       <c r="L67" s="3">
-        <v>6.7836017427445325</v>
+        <v>4.3582890174611206</v>
       </c>
       <c r="M67" s="3">
-        <v>4.3582890174611206</v>
+        <v>17.0036633103641</v>
       </c>
       <c r="N67" s="3">
-        <v>17.0036633103641</v>
-      </c>
-      <c r="O67" s="3">
         <v>13.680692593081275</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:14">
       <c r="B68" s="1"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5726,9 +5582,8 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>23</v>
       </c>
@@ -5751,31 +5606,28 @@
         <v>27.672131147540988</v>
       </c>
       <c r="H69" s="3">
-        <v>0.32786885245901637</v>
+        <v>117.02459016393442</v>
       </c>
       <c r="I69" s="3">
-        <v>117.02459016393442</v>
+        <v>24.081967213114755</v>
       </c>
       <c r="J69" s="3">
-        <v>24.081967213114755</v>
+        <v>36.860655737704917</v>
       </c>
       <c r="K69" s="3">
-        <v>36.860655737704917</v>
+        <v>149.37704918032787</v>
       </c>
       <c r="L69" s="3">
-        <v>149.37704918032787</v>
+        <v>0.87704918032786883</v>
       </c>
       <c r="M69" s="3">
-        <v>0.87704918032786883</v>
+        <v>75.196721311475414</v>
       </c>
       <c r="N69" s="3">
-        <v>75.196721311475414</v>
-      </c>
-      <c r="O69" s="3">
         <v>64.852459016393439</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:14">
       <c r="B70" s="1"/>
       <c r="C70" t="s">
         <v>24</v>
@@ -5793,31 +5645,28 @@
         <v>5.5572764631353202</v>
       </c>
       <c r="H70" s="3">
-        <v>1.7222869991353027</v>
+        <v>9.6836968915684327</v>
       </c>
       <c r="I70" s="3">
-        <v>9.6836968915684327</v>
+        <v>7.4394717818113705</v>
       </c>
       <c r="J70" s="3">
-        <v>7.4394717818113705</v>
+        <v>7.5569592004253474</v>
       </c>
       <c r="K70" s="3">
-        <v>7.5569592004253474</v>
+        <v>4.5670377615708508</v>
       </c>
       <c r="L70" s="3">
-        <v>4.5670377615708508</v>
+        <v>5.4649822174390978</v>
       </c>
       <c r="M70" s="3">
-        <v>5.4649822174390978</v>
+        <v>12.634936825899205</v>
       </c>
       <c r="N70" s="3">
-        <v>12.634936825899205</v>
-      </c>
-      <c r="O70" s="3">
         <v>10.266667481045305</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:14">
       <c r="B71" s="1"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5830,9 +5679,8 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:15">
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>24</v>
       </c>
@@ -5855,31 +5703,28 @@
         <v>25.513461538461538</v>
       </c>
       <c r="H72" s="3">
-        <v>2.8846153846153848E-2</v>
+        <v>114.10576923076923</v>
       </c>
       <c r="I72" s="3">
-        <v>114.10576923076923</v>
+        <v>21.78846153846154</v>
       </c>
       <c r="J72" s="3">
-        <v>21.78846153846154</v>
+        <v>34.269230769230766</v>
       </c>
       <c r="K72" s="3">
-        <v>34.269230769230766</v>
+        <v>148.20192307692307</v>
       </c>
       <c r="L72" s="3">
-        <v>148.20192307692307</v>
+        <v>-0.13461538461538461</v>
       </c>
       <c r="M72" s="3">
-        <v>-0.13461538461538461</v>
+        <v>71.894230769230774</v>
       </c>
       <c r="N72" s="3">
-        <v>71.894230769230774</v>
-      </c>
-      <c r="O72" s="3">
         <v>63.432692307692307</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:14">
       <c r="B73" s="1"/>
       <c r="C73" t="s">
         <v>24</v>
@@ -5897,31 +5742,28 @@
         <v>6.1348947971092089</v>
       </c>
       <c r="H73" s="3">
-        <v>1.485226807137231</v>
+        <v>10.184989208512437</v>
       </c>
       <c r="I73" s="3">
-        <v>10.184989208512437</v>
+        <v>6.1903663942188878</v>
       </c>
       <c r="J73" s="3">
-        <v>6.1903663942188878</v>
+        <v>8.9986438820511356</v>
       </c>
       <c r="K73" s="3">
-        <v>8.9986438820511356</v>
+        <v>4.7639063796513517</v>
       </c>
       <c r="L73" s="3">
-        <v>4.7639063796513517</v>
+        <v>4.5816475293108523</v>
       </c>
       <c r="M73" s="3">
-        <v>4.5816475293108523</v>
+        <v>14.499448443906919</v>
       </c>
       <c r="N73" s="3">
-        <v>14.499448443906919</v>
-      </c>
-      <c r="O73" s="3">
         <v>12.668490911795631</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:14">
       <c r="B74" s="1"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5934,9 +5776,8 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>25</v>
       </c>
@@ -5959,31 +5800,28 @@
         <v>25.82121212121212</v>
       </c>
       <c r="H75" s="3">
-        <v>-0.48484848484848486</v>
+        <v>106.06060606060606</v>
       </c>
       <c r="I75" s="3">
-        <v>106.06060606060606</v>
+        <v>19.939393939393938</v>
       </c>
       <c r="J75" s="3">
-        <v>19.939393939393938</v>
+        <v>34.469696969696969</v>
       </c>
       <c r="K75" s="3">
-        <v>34.469696969696969</v>
+        <v>148.40909090909091</v>
       </c>
       <c r="L75" s="3">
-        <v>148.40909090909091</v>
+        <v>-1.1666666666666667</v>
       </c>
       <c r="M75" s="3">
-        <v>-1.1666666666666667</v>
+        <v>66.515151515151516</v>
       </c>
       <c r="N75" s="3">
-        <v>66.515151515151516</v>
-      </c>
-      <c r="O75" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:14">
       <c r="B76" s="1"/>
       <c r="C76" t="s">
         <v>24</v>
@@ -6001,31 +5839,28 @@
         <v>6.9787451149362782</v>
       </c>
       <c r="H76" s="3">
-        <v>1.5199922671496306</v>
+        <v>16.409881343059631</v>
       </c>
       <c r="I76" s="3">
-        <v>16.409881343059631</v>
+        <v>4.6494665314022781</v>
       </c>
       <c r="J76" s="3">
-        <v>4.6494665314022781</v>
+        <v>7.3844014487741312</v>
       </c>
       <c r="K76" s="3">
-        <v>7.3844014487741312</v>
+        <v>4.5965312109844003</v>
       </c>
       <c r="L76" s="3">
-        <v>4.5965312109844003</v>
+        <v>4.5137276583481833</v>
       </c>
       <c r="M76" s="3">
-        <v>4.5137276583481833</v>
+        <v>12.648802104310624</v>
       </c>
       <c r="N76" s="3">
-        <v>12.648802104310624</v>
-      </c>
-      <c r="O76" s="3">
         <v>11.826395746956736</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:14">
       <c r="B77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6038,9 +5873,8 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:15">
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>26</v>
       </c>
@@ -6063,28 +5897,63 @@
         <v>12.4</v>
       </c>
       <c r="H78" s="3">
-        <v>2</v>
+        <v>104.5</v>
       </c>
       <c r="I78" s="3">
-        <v>104.5</v>
+        <v>15</v>
       </c>
       <c r="J78" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K78" s="3">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="L78" s="3">
-        <v>140</v>
+        <v>-11</v>
       </c>
       <c r="M78" s="3">
-        <v>-11</v>
+        <v>48</v>
       </c>
       <c r="N78" s="3">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="3">
-        <v>64.5</v>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6101,18 +5970,18 @@
   <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M78" activeCellId="1" sqref="D48:M49 M78"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="30.625" customWidth="1"/>
     <col min="12" max="12" width="17.125" customWidth="1"/>
     <col min="13" max="13" width="17.875" customWidth="1"/>
